--- a/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.8474157351370837</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.03781485752983108</v>
+        <v>0.03781485752983142</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.209443517020979</v>
+        <v>-2.412281166701232</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.057435467151761</v>
+        <v>-2.878209006918722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.416880551821793</v>
+        <v>-2.485572885871147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.351747879522722</v>
+        <v>-1.340843089657892</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.030607981575915</v>
+        <v>-1.973730552187187</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.730293553285697</v>
+        <v>-1.563227288625415</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.421714659924332</v>
+        <v>-1.385856228938822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.998352543078043</v>
+        <v>-1.986475987487239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.366125685665196</v>
+        <v>-1.439139418092049</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.637850676788755</v>
+        <v>1.719719543762822</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6188992230407646</v>
+        <v>0.7528491557775131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.671725572057787</v>
+        <v>3.939402798794415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.959933272889587</v>
+        <v>1.934749522977766</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8133096938365725</v>
+        <v>0.9363202236785778</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.156989356266851</v>
+        <v>2.326433331711019</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.238006044694361</v>
+        <v>1.220056982620713</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3355405366667129</v>
+        <v>0.304141239202404</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.385108861899438</v>
+        <v>2.510965324920915</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3846305259993982</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.0171636517227738</v>
+        <v>0.01716365172277395</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6132421645394253</v>
+        <v>-0.6443960376510562</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8022778160163805</v>
+        <v>-0.7884748693398878</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.743946094994865</v>
+        <v>-0.7472419488300942</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6306303450467944</v>
+        <v>-0.6511294876085778</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.881315209377324</v>
+        <v>-0.8880035556332057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8142445584591436</v>
+        <v>-0.7949066215712653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5071324082426131</v>
+        <v>-0.4887616966074744</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7159592453086255</v>
+        <v>-0.7008060427420609</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.562898152411194</v>
+        <v>-0.5727166110026377</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9373139377220583</v>
+        <v>0.8860553870966269</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4812996184868448</v>
+        <v>0.4850345147108261</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.95522517970893</v>
+        <v>1.890947844266938</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.829818416696518</v>
+        <v>2.422083844187707</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.107621513542434</v>
+        <v>1.336631985514078</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.426813524933918</v>
+        <v>3.025764585610975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.732539275299901</v>
+        <v>0.7761807180956253</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2331226823797154</v>
+        <v>0.2596189670915908</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.591961959848128</v>
+        <v>1.521525189740297</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.97369860437363</v>
+        <v>-3.268886173109746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.364800226381357</v>
+        <v>-4.28516897356216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.723966629913427</v>
+        <v>-3.854983002143128</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.497193207882788</v>
+        <v>-1.526302239548427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.819820894239562</v>
+        <v>-1.837070337694605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.304807182653042</v>
+        <v>-2.304102561402729</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.87403379756559</v>
+        <v>-1.951481846949624</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.829235667674399</v>
+        <v>-2.71018516497127</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.83496659555613</v>
+        <v>-2.795208598986789</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3403882273752212</v>
+        <v>0.2165902080392947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.541375285302591</v>
+        <v>-1.485240639265951</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.09134132281887</v>
+        <v>0.3632047619509337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.32874829129714</v>
+        <v>1.440624878098587</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8956411558677929</v>
+        <v>1.222952992054096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3857892980478723</v>
+        <v>0.5281677164594408</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3712695243543463</v>
+        <v>0.5008249146723751</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6759324310570066</v>
+        <v>-0.5394322403359558</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.3351434026745549</v>
+        <v>-0.3342813170121773</v>
       </c>
     </row>
     <row r="13">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.741757164867725</v>
+        <v>-0.7556123362948649</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
@@ -1003,22 +1003,22 @@
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6145992283406604</v>
+        <v>-0.623134499848142</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.768630684006704</v>
+        <v>-0.749835577402413</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6157374415680761</v>
+        <v>-0.6084597945805671</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8501133796751051</v>
+        <v>-0.8541482567503021</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.9297991484449374</v>
+        <v>-0.9193728933608273</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2118237825074911</v>
+        <v>0.1523584182885507</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5154552259429428</v>
+        <v>-0.5202250596593926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.020248565498455</v>
+        <v>0.3654754122479107</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.393496654996955</v>
+        <v>1.466358932595971</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8538868405249123</v>
+        <v>1.447184821832084</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8755693099564403</v>
+        <v>0.8057224660421125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2381309871984988</v>
+        <v>0.3084698639632904</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.285076779822048</v>
+        <v>-0.239489316945854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04467205722391964</v>
+        <v>0.01373735201766595</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.158881082157397</v>
+        <v>-5.170683135825198</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.332022830295669</v>
+        <v>-6.441859340379031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.624077157318974</v>
+        <v>-5.604728404734717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.709792201911816</v>
+        <v>-1.61421092095577</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.747890906382332</v>
+        <v>-2.872601631679438</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.684262271738321</v>
+        <v>-2.646525573209376</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.691584308690945</v>
+        <v>-2.803690499207575</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.984048685860716</v>
+        <v>-4.02867839765111</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.563045943390553</v>
+        <v>-3.648442399500461</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6650898961756265</v>
+        <v>-0.6709304649663732</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.380292725071995</v>
+        <v>-2.434933114276741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.317725445221805</v>
+        <v>-1.277935255911455</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.803105017485879</v>
+        <v>1.672377675166852</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1239009776081228</v>
+        <v>-0.009304933533429307</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07695177615145851</v>
+        <v>0.09525028130597467</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06079769366516514</v>
+        <v>0.1413267748730866</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.582210280399946</v>
+        <v>-1.607609932348846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.13737566067577</v>
+        <v>-1.132229391336907</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7613253288352261</v>
+        <v>-0.771542753566672</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9175734698240261</v>
+        <v>-0.9274978443269098</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8502996624158796</v>
+        <v>-0.8472129966113841</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5539939382389352</v>
+        <v>-0.5329482655911486</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8488274184310914</v>
+        <v>-0.8650091775948174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7911581215040586</v>
+        <v>-0.7902692586472506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6038295532336189</v>
+        <v>-0.6272524973859711</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8569932046089852</v>
+        <v>-0.865304363807759</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7712004052357195</v>
+        <v>-0.7780377592457856</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1336168610939933</v>
+        <v>-0.09780415139782697</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.5488594745484011</v>
+        <v>-0.5701700285639304</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3030989481347365</v>
+        <v>-0.3062803876782081</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.135955757910098</v>
+        <v>1.012845434725776</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1641116142494407</v>
+        <v>0.24861240493833</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1655378908309187</v>
+        <v>0.1876493513424795</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02045872950109106</v>
+        <v>0.05398766202479482</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.50506424603222</v>
+        <v>-0.5141511646168505</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3434229182164806</v>
+        <v>-0.3494754309265817</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.831294796022066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.9372980213398403</v>
+        <v>-0.937298021339841</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.7844289249649847</v>
@@ -1297,7 +1297,7 @@
         <v>-0.6516953887878293</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9581268472933789</v>
+        <v>0.9581268472933783</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1907181694321081</v>
@@ -1306,7 +1306,7 @@
         <v>-1.744545453559827</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.005770542415398441</v>
+        <v>0.005770542415399482</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.406039243724865</v>
+        <v>-3.406644514958433</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.113959492786587</v>
+        <v>-5.047968897104045</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.453954856638568</v>
+        <v>-3.36019242817162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.093759039073981</v>
+        <v>-1.10829815920473</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.370744580317496</v>
+        <v>-2.327064328107064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.697335937458099</v>
+        <v>-0.977499880147557</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.759515330894279</v>
+        <v>-1.730282787539626</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.042399723954021</v>
+        <v>-3.117732874258569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.440163986086685</v>
+        <v>-1.454922247970172</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9836090466901278</v>
+        <v>1.203246164223865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.110881778063834</v>
+        <v>-1.094360325180567</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.145945952958762</v>
+        <v>1.257453503167193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.671412906448864</v>
+        <v>2.820418404537345</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7012828941337511</v>
+        <v>0.8081532786331814</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.419072828268287</v>
+        <v>2.340013773422141</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.223000205186936</v>
+        <v>1.241480884786221</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.6796317085709978</v>
+        <v>-0.5673532310463862</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.305175362323331</v>
+        <v>1.319419784997704</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.7254713421017579</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2401667443623686</v>
+        <v>-0.2401667443623688</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4116790422945369</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3420186647705722</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5028380906632546</v>
+        <v>0.5028380906632542</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.06559636916466112</v>
@@ -1411,7 +1411,7 @@
         <v>-0.6000259332238321</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.001984743413215066</v>
+        <v>0.001984743413215424</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6722214898881773</v>
+        <v>-0.6737042847867977</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9022810610296157</v>
+        <v>-0.9047146460662653</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6368009707343077</v>
+        <v>-0.6123684372887377</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4508374768966549</v>
+        <v>-0.4586237026120125</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7894209362723</v>
+        <v>-0.8047231975433529</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2653752635400075</v>
+        <v>-0.3432980622136436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4693779261038448</v>
+        <v>-0.4602573679188773</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7876078782553709</v>
+        <v>-0.7892333987156332</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3776354748460259</v>
+        <v>-0.3771752210520937</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3950611821792736</v>
+        <v>0.437474779609861</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.293577189576827</v>
+        <v>-0.2677497184824618</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.460995999634163</v>
+        <v>0.5025377691763401</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.335558409830901</v>
+        <v>2.845813760073784</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8217378611592948</v>
+        <v>0.9145372266505206</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.497364033527964</v>
+        <v>2.278978070140724</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5848420387192754</v>
+        <v>0.5836703031419035</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.24735313082977</v>
+        <v>-0.2143091011828666</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6365329119319805</v>
+        <v>0.6459728861724761</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.6303936043598946</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.581784476593096</v>
+        <v>0.5817844765930964</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.8876016963072834</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.564608417519795</v>
+        <v>-3.796176716648339</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.434611911739598</v>
+        <v>-2.483589640686829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.878161573172211</v>
+        <v>-2.944052537795095</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.04454131548608276</v>
+        <v>0.09752256603230544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.465607068929994</v>
+        <v>-2.517205568173705</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.394874556520852</v>
+        <v>-1.349550789284758</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.022210034484031</v>
+        <v>-1.065901237714247</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.878365959250846</v>
+        <v>-1.888272021112518</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.536424087179132</v>
+        <v>-1.362798083043085</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.844348701873309</v>
+        <v>1.983127336309743</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.274078663043856</v>
+        <v>3.373534565947965</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.941626285638079</v>
+        <v>2.249481413515553</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.882214882785923</v>
+        <v>4.958212260828029</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.930312565494976</v>
+        <v>1.094189882242188</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.060520345674531</v>
+        <v>2.133364998011089</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.556460385297936</v>
+        <v>2.783038439046358</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.588086223563833</v>
+        <v>1.569543452457743</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.576138736885546</v>
+        <v>1.568736303308215</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3155300535534867</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2911997929331872</v>
+        <v>0.2911997929331874</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3229955268759035</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6663181274796276</v>
+        <v>-0.6871360498992283</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5362905561871927</v>
+        <v>-0.5559876154046804</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5534488432205678</v>
+        <v>-0.547532356589673</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1234474706474093</v>
+        <v>-0.1134044484108198</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8380803772730946</v>
+        <v>-0.799708151582623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4361508571870245</v>
+        <v>-0.4692106748788</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2890411028298651</v>
+        <v>-0.2930345842126381</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5272488104105219</v>
+        <v>-0.5246708275944708</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.400691312621909</v>
+        <v>-0.3838509181895424</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9043144221762415</v>
+        <v>0.9860655463023928</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.534733177050612</v>
+        <v>1.629473268181809</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.096931386056478</v>
+        <v>1.081385889855383</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.10643058146047</v>
+        <v>4.643705859151755</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.160521966709924</v>
+        <v>1.218294874836922</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.103176109871738</v>
+        <v>2.065719129992047</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.367390535941045</v>
+        <v>1.497963458159321</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.895901543927772</v>
+        <v>0.7831394210249057</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8814336170003345</v>
+        <v>0.85028903008572</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.600296348862375</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.176367635782351</v>
+        <v>2.176367635782349</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.9659385606062325</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.09683637196727886</v>
+        <v>-0.1198571759166476</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.947133818140763</v>
+        <v>-3.902498874141172</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.9182088389390709</v>
+        <v>0.5788027902201236</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.334463450685419</v>
+        <v>-4.145603582124187</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.86363731404423</v>
+        <v>-4.77868904028152</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.069255179942125</v>
+        <v>-0.7875944047760516</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.391329345280697</v>
+        <v>-1.509141222455378</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.510782917879206</v>
+        <v>-3.397095453997995</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.8422132912441734</v>
+        <v>0.7947823251612958</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.965263973395516</v>
+        <v>6.521597397708582</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7890378116252303</v>
+        <v>0.7080661538932523</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.722084282729917</v>
+        <v>6.165593065199623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.480612646792334</v>
+        <v>2.607808260191463</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.634889406990826</v>
+        <v>1.509342741975286</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.239860689270331</v>
+        <v>5.314207436461844</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.403458324031179</v>
+        <v>3.302691419986318</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.4366730799749355</v>
+        <v>0.5758613039979458</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.827135222606263</v>
+        <v>4.914981362429735</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2882998708870566</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3920814471924916</v>
+        <v>0.3920814471924913</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.222557498503136</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0534914464454789</v>
+        <v>-0.1242966549041667</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8587560666442481</v>
+        <v>-0.8676010059602056</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1639402800348252</v>
+        <v>0.0708427662655189</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5972954232054075</v>
+        <v>-0.5778966426824717</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6556946386872908</v>
+        <v>-0.6469194114554715</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1443894989940485</v>
+        <v>-0.104644569182282</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2756111783836814</v>
+        <v>-0.2808003389003704</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6520536407372062</v>
+        <v>-0.6236546089712757</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1405329203552358</v>
+        <v>0.1221940691414458</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.737474843118753</v>
+        <v>3.805245070709494</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6917691719511001</v>
+        <v>0.6149342994043964</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.184929265028519</v>
+        <v>3.629596503783804</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6470871693653474</v>
+        <v>0.787031792367985</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4867906049376983</v>
+        <v>0.4073950110980431</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.515322757965085</v>
+        <v>1.443642462835305</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.052512291718781</v>
+        <v>1.013342333136252</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1606612151198513</v>
+        <v>0.2051649882155671</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.589778102752702</v>
+        <v>1.504886007228128</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>4.756159704054943</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12.60062598974111</v>
+        <v>12.60062598974112</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>8.796069462348306</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.283854884268474</v>
+        <v>2.111177245931659</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.6366824428266254</v>
+        <v>-0.4375223563435961</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.862873692100506</v>
+        <v>7.149724765231773</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.989457370918408</v>
+        <v>3.479039651985403</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.487214007308802</v>
+        <v>-0.6828059350829853</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.02203531509015</v>
+        <v>13.0539963476017</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.653369327699823</v>
+        <v>4.610481950008332</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.6141208752628318</v>
+        <v>-0.0553957678576943</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.97127036538791</v>
+        <v>12.08754637781854</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.65988361657387</v>
+        <v>14.28103161171113</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.18311163363078</v>
+        <v>9.985891173870206</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.32864468741901</v>
+        <v>18.08917940380673</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.89360249580086</v>
+        <v>14.30865619542551</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.204615179286032</v>
+        <v>9.802753842891024</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.51569843780262</v>
+        <v>22.18929090229008</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.67581805780202</v>
+        <v>12.46709283443155</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.388025335586864</v>
+        <v>7.972047825957886</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.01652955399346</v>
+        <v>19.30207256481926</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.5235408492775947</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.387031311516739</v>
+        <v>1.38703131151674</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.8426582450198929</v>
@@ -2044,7 +2044,7 @@
         <v>0.4055750341607961</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.694844007247763</v>
+        <v>1.694844007247762</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.8578249003780523</v>
@@ -2053,7 +2053,7 @@
         <v>0.4469173521736569</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.576645499251311</v>
+        <v>1.57664549925131</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09053563826354358</v>
+        <v>0.1539299054650085</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08082877796766336</v>
+        <v>-0.05517408163683347</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.515878146883565</v>
+        <v>0.5955750455918501</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1871154057155954</v>
+        <v>0.2469114868485588</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1252948763018179</v>
+        <v>-0.05640549176637953</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8985527769526829</v>
+        <v>0.914191661765436</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3682703193115676</v>
+        <v>0.3890100516578747</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0468264456591399</v>
+        <v>-0.001985316586485447</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.9666789377140292</v>
+        <v>0.987272199043105</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.155297586240112</v>
+        <v>2.267728622589332</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.665077257083212</v>
+        <v>1.531829148033397</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.733429157607625</v>
+        <v>2.853649350508345</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.681840275750798</v>
+        <v>1.761433254207238</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.122296734121144</v>
+        <v>1.287119315099837</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.967996055559805</v>
+        <v>2.881284966424238</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.534063751104135</v>
+        <v>1.563988066932747</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.021180724121809</v>
+        <v>1.006788704638498</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.48507304745377</v>
+        <v>2.605204430364435</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-1.616142739494327</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.5276091159381602</v>
+        <v>0.5276091159381608</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.401993680085959</v>
@@ -2153,7 +2153,7 @@
         <v>-0.1289396081739221</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.695647204959252</v>
+        <v>2.695647204959253</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.6050059727190499</v>
@@ -2162,7 +2162,7 @@
         <v>-0.8592785830779558</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.636169568027223</v>
+        <v>1.636169568027224</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.143971172569003</v>
+        <v>-1.179344992818487</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.505066820402597</v>
+        <v>-2.489460764775993</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4537704191247547</v>
+        <v>-0.3959733848469785</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.5141700633295342</v>
+        <v>0.3554913243356491</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.9483144367809578</v>
+        <v>-0.9095584293896718</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.870794184458344</v>
+        <v>1.859001094297126</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1162936865105029</v>
+        <v>-0.06802253957679644</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.469076183461253</v>
+        <v>-1.49565350616565</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.003386001584804</v>
+        <v>0.9320113668949465</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8336542986758422</v>
+        <v>0.8426330623551734</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.7219391709474802</v>
+        <v>-0.761443768064168</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.484071710783472</v>
+        <v>1.616422181636273</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.410843693058333</v>
+        <v>2.288721414206969</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.7490940780422934</v>
+        <v>0.7838956237123308</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.634002468912271</v>
+        <v>3.521003882701536</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.436700570806217</v>
+        <v>1.225708976882703</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1769777525493187</v>
+        <v>-0.260779926124327</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.306841237371224</v>
+        <v>2.284795083909728</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.3997350877302417</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1304982976397278</v>
+        <v>0.130498297639728</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.4451464510609351</v>
@@ -2258,7 +2258,7 @@
         <v>-0.04093956327698271</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8558938628927117</v>
+        <v>0.855893862892712</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1685430343014853</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2393784958045249</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4558053904620165</v>
+        <v>0.4558053904620167</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2560954599300507</v>
+        <v>-0.2628839817196687</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5492187067231898</v>
+        <v>-0.5542972089361875</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1024881233594571</v>
+        <v>-0.08490934646222162</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.146432114604519</v>
+        <v>0.09394360423152689</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2634571038571901</v>
+        <v>-0.2711243536727967</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5068970771080428</v>
+        <v>0.5151985440260679</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.03072359898917399</v>
+        <v>-0.01975910298173775</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3809603535715476</v>
+        <v>-0.3792706150370664</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2411244227589006</v>
+        <v>0.238938172259823</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2324129557242869</v>
+        <v>0.2403854097652737</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1988699108447619</v>
+        <v>-0.2230403895104731</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4193181856829457</v>
+        <v>0.4478920214555991</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8981160550892044</v>
+        <v>0.8288435993348844</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2767024157188369</v>
+        <v>0.2880697264881199</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.361533895686631</v>
+        <v>1.30433173970042</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4425223188167802</v>
+        <v>0.3853043623848409</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.05768806108227193</v>
+        <v>-0.0779867840350869</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.694318043831647</v>
+        <v>0.7072040002776586</v>
       </c>
     </row>
     <row r="52">
